--- a/Audit-SEO.xlsx
+++ b/Audit-SEO.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="rapport d’analyse SEO" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="125" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="95">
   <si>
     <t xml:space="preserve">page ACCUEIL</t>
   </si>
@@ -53,6 +53,29 @@
   </si>
   <si>
     <t xml:space="preserve">Référence</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="15"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">██
+(</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="9"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">en rouge les 10 recommandations PRIORITAIRES pour améliorer le site)</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">SEO
@@ -67,11 +90,27 @@
     <t xml:space="preserve">&lt;html lang="fr"&gt;</t>
   </si>
   <si>
-    <t xml:space="preserve">Renseigner la langue « fr »
-Sur les 2 pages accueil et
-Page 2</t>
-  </si>
-  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Bahnschrift"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Bahnschrift"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">██</t>
+    </r>
     <r>
       <rPr>
         <sz val="10"/>
@@ -80,17 +119,12 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">WAVE, </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Bahnschrift"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Lighthouse</t>
-    </r>
+      <t xml:space="preserve"> Renseigner la langue « fr »
+Sur les 2 pages accueil et Page 2</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">WAVE, Lighthouse</t>
   </si>
   <si>
     <t xml:space="preserve">RESEAUX SOCIAUX
@@ -124,12 +158,46 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Modifier «href=index.html »
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Bahnschrift"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Bahnschrift"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">██</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Bahnschrift"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Bahnschrift"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Modifier «href=index.html »
 Par adresses tweeter,
  facebook,Dribbble, instagram</t>
-  </si>
-  <si>
-    <t xml:space="preserve">WAVE, Lighthouse</t>
+    </r>
   </si>
   <si>
     <r>
@@ -195,25 +263,75 @@
         <color rgb="FF000000"/>
         <rFont val="Bahnschrift"/>
         <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">- n°1 &amp; 2 : </t>
-    </r>
-    <r>
-      <rPr>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">- n°1 &amp; 2 : Pratique </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
         <sz val="10"/>
         <color rgb="FF000000"/>
         <rFont val="Bahnschrift"/>
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">Pratique whitehat
+      <t xml:space="preserve">whitehat
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Bahnschrift"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
 - n°3 à 29 : le ratio de contraste doit être de 4,5:1</t>
     </r>
   </si>
   <si>
-    <t xml:space="preserve">- n°1 &amp; 2 : Supprimer les balises &lt;keyword&gt; dans le html au niveau de la navbar-header, dans le footer(4 logos sociaux) et dans la balise meta name="keywords"(non pratiqué en 2021) 
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Bahnschrift"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">3-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Bahnschrift"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">██</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Bahnschrift"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Bahnschrift"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">- n°1 &amp; 2 : Supprimer les balises &lt;keyword&gt; dans le html au niveau de la navbar-header, dans le footer(4 logos sociaux) et dans la balise meta name="keywords"(non pratiqué en 2021) 
 - n°3 à 7 : mettre texte noir
-- n°8 à 29 : supprimer tous les liens car non pertinents </t>
+- n°8 à 29 : supprimer tous les liens car non pertinents avec le domaine d’activité du site </t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">WAVE</t>
@@ -260,7 +378,44 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">&lt;meta      name="description"      content="La chouette agence est une entreprise de web design à Lyon qui aide les entreprises à la création de site et à devenir attractives et visibles sur Internet. Nos métiers : WEB DESIGN - STRATÉGIE - ILLUSTRATIONS »    /&gt; </t>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Bahnschrift"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">4-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Bahnschrift"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">██</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Bahnschrift"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">&lt;meta name="description"      content="La chouette agence est une entreprise de web design à Lyon qui aide les entreprises à la création de site et à devenir attractives et visibles sur Internet. Nos métiers : WEB DESIGN - STRATÉGIE - ILLUSTRATIONS »    /&gt; </t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Lighthouse</t>
@@ -272,7 +427,44 @@
     <t xml:space="preserve">Restructure the document headings : &lt;h1&gt;Page title&lt;/h1&gt;  &lt;h3&gt;Section heading 1&lt;/h3&gt;  …  &lt;h3&gt;Section heading 2&lt;/h3&gt;  …</t>
   </si>
   <si>
-    <t xml:space="preserve"> mettre des &lt;h2&gt; à la place des images dans la section &lt;!-- bloc-2-services --&gt;</t>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Bahnschrift"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">5-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Bahnschrift"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">██</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Bahnschrift"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Bahnschrift"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">mettre des &lt;h2&gt; à la place des images dans la section &lt;!-- bloc-2-services --&gt;</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Lighthouse, Wave</t>
@@ -287,56 +479,57 @@
     <t xml:space="preserve">font-size: 11px </t>
   </si>
   <si>
-    <t xml:space="preserve">font-size: 14px </t>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Bahnschrift"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">10-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Bahnschrift"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">██</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Bahnschrift"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Bahnschrift"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">font-size: 14px </t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Observation visuelle</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Bahnschrift"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Absence de titres sur les onglets
-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Bahnschrift"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">La Chouette Agence n’apparaît pas dans l’onglet</t>
-    </r>
+    <t xml:space="preserve">Absence de titres sur les onglets
+La Chouette Agence n’apparaît pas dans l’onglet</t>
   </si>
   <si>
     <t xml:space="preserve">Pouvoir se repérer quand plusieurs onglets sont ouverts</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Bahnschrift"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">Remplir la balise &lt; title &gt; avec : </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Bahnschrift"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">La Chouette Agence</t>
-    </r>
+    <t xml:space="preserve">Remplir la balise &lt; title &gt; avec : La Chouette Agence</t>
   </si>
   <si>
     <t xml:space="preserve">on ne sait pas sur quel site on est.</t>
@@ -358,6 +551,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">La mise en page2 ne se charge pas car les fichiers css ne sont pas appelés avec les bons noms.
 .min</t>
@@ -368,6 +562,7 @@
         <color rgb="FF000000"/>
         <rFont val="Arial"/>
         <family val="0"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> supprimés  dans le &lt;HEAD&gt; pour les fichier .css et .js.</t>
     </r>
@@ -375,6 +570,34 @@
   <si>
     <r>
       <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Bahnschrift"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">6-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Bahnschrift"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">██</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Bahnschrift"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
         <u val="single"/>
         <sz val="10"/>
         <color rgb="FF000000"/>
@@ -411,7 +634,44 @@
     <t xml:space="preserve">cause ;  c’est 1 image trop grande</t>
   </si>
   <si>
-    <t xml:space="preserve">Ecrire le texte entre 2 &lt;p&gt; ou &lt;h2&gt; et effacer le lien image dans html</t>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Bahnschrift"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">9-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Bahnschrift"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">██</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Bahnschrift"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Bahnschrift"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Ecrire le texte entre 2 &lt;p&gt; ou &lt;h2&gt; et effacer le lien image dans html</t>
+    </r>
   </si>
   <si>
     <r>
@@ -447,7 +707,44 @@
     <t xml:space="preserve">Diffusez des images aux formats nouvelle génération </t>
   </si>
   <si>
-    <t xml:space="preserve">réenregistrer les images avec photoshop sous enregistrer pour le web et periph en jpg</t>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Bahnschrift"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">7-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Bahnschrift"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">██</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Bahnschrift"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Bahnschrift"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">réenregistrer les images avec photoshop sous enregistrer pour le web et periph en jpg</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">Lighthouse, PageSpeed Insights, Uptrends
@@ -478,6 +775,34 @@
     <t xml:space="preserve">Si un contrôle de formulaire n'a pas d'étiquette de texte correctement associée, la fonction ou le but de ce contrôle de formulaire peut ne pas être présenté aux utilisateurs de lecteur d'écran. Les étiquettes de formulaire fournissent également des descriptions visibles et des cibles cliquables plus grandes pour les contrôles de formulaire.</t>
   </si>
   <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Bahnschrift"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">8-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Bahnschrift"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">██</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Bahnschrift"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
     <r>
       <rPr>
         <sz val="10"/>
@@ -500,16 +825,7 @@
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve"> Nom  &lt;/label&gt;
- </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <color rgb="FF000000"/>
-        <rFont val="Arial"/>
-        <family val="0"/>
-      </rPr>
-      <t xml:space="preserve">Ou
+ Ou
 &lt;div class="form-group"&gt;
 &lt;label for="email"&gt;Adresse email&lt;/label&gt;
 &lt;input id="email" name="email" type="email" class="form-control" required=""&gt;
@@ -598,6 +914,18 @@
   </si>
   <si>
     <t xml:space="preserve">OK</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ericdesroches.github.io/P4_02_code_source---NON-OPTIMISE/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://ericdesroches.github.io/P4_02_code_source_OPTIMISE/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CODE AVANT OPTIMISATION</t>
+  </si>
+  <si>
+    <t xml:space="preserve">CODE APRES OPTIMISATION</t>
   </si>
 </sst>
 </file>
@@ -607,7 +935,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -654,10 +982,33 @@
       <charset val="1"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="15"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="9"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b val="true"/>
       <sz val="10"/>
-      <color rgb="FF000000"/>
+      <color rgb="FFFF0000"/>
       <name val="Bahnschrift"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Bahnschrift"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -665,6 +1016,32 @@
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Bahnschrift"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Bahnschrift"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Bahnschrift"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Bahnschrift"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
       <family val="2"/>
       <charset val="1"/>
     </font>
@@ -688,12 +1065,7 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="0"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
-      <family val="0"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -717,6 +1089,20 @@
       <name val="Calibri"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
   </fonts>
   <fills count="3">
@@ -809,7 +1195,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="51">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -894,6 +1280,14 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -918,6 +1312,10 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -930,6 +1328,10 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -946,7 +1348,7 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -966,32 +1368,36 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1072,14 +1478,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>97200</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:row>5</xdr:row>
       <xdr:rowOff>143280</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2668680</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>685800</xdr:rowOff>
+      <xdr:colOff>2668320</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>685440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1092,8 +1498,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1224000" y="6323040"/>
-          <a:ext cx="2571480" cy="542520"/>
+          <a:off x="1223640" y="7100280"/>
+          <a:ext cx="2571120" cy="542160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1109,14 +1515,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>10800</xdr:colOff>
-      <xdr:row>5</xdr:row>
+      <xdr:row>6</xdr:row>
       <xdr:rowOff>39240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2620440</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>591480</xdr:rowOff>
+      <xdr:colOff>2620080</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>591120</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1129,8 +1535,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1137600" y="6939000"/>
-          <a:ext cx="2609640" cy="552240"/>
+          <a:off x="1137240" y="7716240"/>
+          <a:ext cx="2609280" cy="551880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1147,11 +1553,11 @@
       <xdr:col>1</xdr:col>
       <xdr:colOff>25200</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>87840</xdr:rowOff>
+      <xdr:rowOff>88200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2505240</xdr:colOff>
+      <xdr:colOff>2504880</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>4194720</xdr:rowOff>
     </xdr:to>
@@ -1166,8 +1572,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1152000" y="903600"/>
-          <a:ext cx="2480040" cy="4106880"/>
+          <a:off x="1151640" y="903960"/>
+          <a:ext cx="2479680" cy="4106520"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1184,11 +1590,11 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>196200</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>418680</xdr:rowOff>
+      <xdr:rowOff>419040</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>3215160</xdr:colOff>
+      <xdr:colOff>3214800</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>1542240</xdr:rowOff>
     </xdr:to>
@@ -1203,8 +1609,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8020440" y="1234440"/>
-          <a:ext cx="3018960" cy="1123560"/>
+          <a:off x="8147520" y="1234800"/>
+          <a:ext cx="3018600" cy="1123200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1220,13 +1626,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>720</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>720</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>1080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>93600</xdr:colOff>
-      <xdr:row>6</xdr:row>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>3180960</xdr:colOff>
+      <xdr:row>7</xdr:row>
       <xdr:rowOff>2000520</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1240,8 +1646,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1127520" y="8056080"/>
-          <a:ext cx="3180960" cy="1999800"/>
+          <a:off x="1127160" y="8833680"/>
+          <a:ext cx="3180240" cy="1999440"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1257,13 +1663,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>720</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>720</xdr:rowOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1080</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2267280</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:colOff>2266920</xdr:colOff>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>466920</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1277,8 +1683,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1127520" y="11931480"/>
-          <a:ext cx="2266560" cy="466200"/>
+          <a:off x="1127160" y="12709080"/>
+          <a:ext cx="2266200" cy="465840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1294,14 +1700,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>720</xdr:colOff>
-      <xdr:row>7</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2600640</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>466200</xdr:rowOff>
+      <xdr:colOff>2600280</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>465840</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1314,8 +1720,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1127520" y="10490760"/>
-          <a:ext cx="2599920" cy="466200"/>
+          <a:off x="1127160" y="11268000"/>
+          <a:ext cx="2599560" cy="465840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1331,14 +1737,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>720</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2410200</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>371160</xdr:rowOff>
+      <xdr:colOff>2409840</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>370800</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1351,8 +1757,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1127520" y="14091120"/>
-          <a:ext cx="2409480" cy="371160"/>
+          <a:off x="1127160" y="14868360"/>
+          <a:ext cx="2409120" cy="370800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1368,14 +1774,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>360</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>12</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2552760</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>571320</xdr:rowOff>
+      <xdr:colOff>2552400</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>570960</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1388,8 +1794,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1127160" y="14981400"/>
-          <a:ext cx="2552400" cy="571320"/>
+          <a:off x="1126800" y="15758640"/>
+          <a:ext cx="2552040" cy="570960"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1405,13 +1811,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>49680</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>277200</xdr:rowOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>277560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2125800</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:colOff>2125440</xdr:colOff>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>781560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1425,8 +1831,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1176480" y="19977120"/>
-          <a:ext cx="2076120" cy="504360"/>
+          <a:off x="1176120" y="20754720"/>
+          <a:ext cx="2075760" cy="504000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1442,14 +1848,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>360</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2714760</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>361440</xdr:rowOff>
+      <xdr:colOff>2714400</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>361080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1462,8 +1868,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1127160" y="21140280"/>
-          <a:ext cx="2714400" cy="361440"/>
+          <a:off x="1126800" y="21917520"/>
+          <a:ext cx="2714040" cy="361080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1479,13 +1885,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>360</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>360</xdr:rowOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>3088800</xdr:colOff>
-      <xdr:row>18</xdr:row>
+      <xdr:colOff>3088440</xdr:colOff>
+      <xdr:row>19</xdr:row>
       <xdr:rowOff>367560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1499,8 +1905,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1127160" y="22580640"/>
-          <a:ext cx="3088440" cy="367200"/>
+          <a:off x="1126800" y="23358240"/>
+          <a:ext cx="3088080" cy="366840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1516,13 +1922,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>360</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>360</xdr:rowOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2819520</xdr:colOff>
-      <xdr:row>12</xdr:row>
+      <xdr:colOff>2819160</xdr:colOff>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>1685880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1536,8 +1942,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1127160" y="15843960"/>
-          <a:ext cx="2819160" cy="1685520"/>
+          <a:off x="1126800" y="16621560"/>
+          <a:ext cx="2818800" cy="1685160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1553,13 +1959,13 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>360</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>360</xdr:rowOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>720</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2495520</xdr:colOff>
-      <xdr:row>20</xdr:row>
+      <xdr:colOff>2495160</xdr:colOff>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>542880</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -1573,8 +1979,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1127160" y="26939880"/>
-          <a:ext cx="2495160" cy="542520"/>
+          <a:off x="1126800" y="27717480"/>
+          <a:ext cx="2494800" cy="542160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1590,14 +1996,14 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>360</xdr:colOff>
-      <xdr:row>19</xdr:row>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>1781280</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>542520</xdr:rowOff>
+      <xdr:colOff>1780920</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>542160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -1610,8 +2016,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1127160" y="24020640"/>
-          <a:ext cx="1780920" cy="542520"/>
+          <a:off x="1126800" y="24797880"/>
+          <a:ext cx="1780560" cy="542160"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1628,11 +2034,11 @@
       <xdr:col>4</xdr:col>
       <xdr:colOff>285840</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>2797200</xdr:rowOff>
+      <xdr:rowOff>2797560</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>3124080</xdr:colOff>
+      <xdr:colOff>3123720</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>3930480</xdr:rowOff>
     </xdr:to>
@@ -1647,8 +2053,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8110080" y="3612960"/>
-          <a:ext cx="2838240" cy="1133280"/>
+          <a:off x="8237160" y="3613320"/>
+          <a:ext cx="2837880" cy="1132920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1665,11 +2071,11 @@
       <xdr:col>2</xdr:col>
       <xdr:colOff>37440</xdr:colOff>
       <xdr:row>2</xdr:row>
-      <xdr:rowOff>86400</xdr:rowOff>
+      <xdr:rowOff>86760</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>3</xdr:col>
-      <xdr:colOff>688320</xdr:colOff>
+      <xdr:colOff>687960</xdr:colOff>
       <xdr:row>2</xdr:row>
       <xdr:rowOff>4168080</xdr:rowOff>
     </xdr:to>
@@ -1684,8 +2090,790 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4252320" y="902160"/>
-          <a:ext cx="2455560" cy="4081680"/>
+          <a:off x="4379400" y="902520"/>
+          <a:ext cx="2455200" cy="4081320"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>491760</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>67320</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1118520</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>143640</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="17" name="Image 18" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="491760" y="1159200"/>
+          <a:ext cx="10707120" cy="5600880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>532080</xdr:colOff>
+      <xdr:row>38</xdr:row>
+      <xdr:rowOff>20520</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1235160</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>20880</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="18" name="Image 19" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId2"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="532080" y="7589520"/>
+          <a:ext cx="10783440" cy="4762800"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>97200</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>143280</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2305080</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>114120</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="Image 7" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1537920" y="1425960"/>
+          <a:ext cx="2207880" cy="542160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>97200</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>143280</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2307240</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>114120</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="20" name="Image 7" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1537920" y="1425960"/>
+          <a:ext cx="2210040" cy="542160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2520720</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>510840</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="21" name="Image 7" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId5"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1440720" y="13093560"/>
+          <a:ext cx="2520720" cy="510840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1238040</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>514080</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="22" name="Image 20" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3961080" y="13093560"/>
+          <a:ext cx="1238040" cy="514080"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2520720</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>534240</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="23" name="Image 8_0" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId7"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1440720" y="13813920"/>
+          <a:ext cx="2520720" cy="533880"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1790280</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>485640</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="24" name="Image 21" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId8"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3961080" y="13813920"/>
+          <a:ext cx="1790280" cy="485280"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>11160</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>39240</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2477880</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>2038680</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="25" name="Image 12" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId9"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1451880" y="15008400"/>
+          <a:ext cx="2466720" cy="1999440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1380600</xdr:colOff>
+      <xdr:row>69</xdr:row>
+      <xdr:rowOff>609480</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Image 22" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId10"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3961080" y="14969520"/>
+          <a:ext cx="1380600" cy="609120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>720</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2238840</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>85320</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="27" name="Image 5" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId11"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1441440" y="1854360"/>
+          <a:ext cx="2238120" cy="465840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>79560</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>466200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="28" name="Image 23" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId12"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1440720" y="17404560"/>
+          <a:ext cx="2599920" cy="466200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2076120</xdr:colOff>
+      <xdr:row>70</xdr:row>
+      <xdr:rowOff>313920</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="29" name="Image 24" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId13"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3961080" y="17404560"/>
+          <a:ext cx="2076120" cy="313920"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>720</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1080</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1951920</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>85680</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="30" name="Image 4" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId14"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1441440" y="2045520"/>
+          <a:ext cx="1951200" cy="465840"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2266560</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>466560</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Image 25" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId15"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1440720" y="18844920"/>
+          <a:ext cx="2266560" cy="466200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2409120</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>448560</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="Image 26" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId16"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3961080" y="18844920"/>
+          <a:ext cx="2409120" cy="448200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>360</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2426760</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>161640</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="Image 14" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId17"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1441080" y="2806920"/>
+          <a:ext cx="2426400" cy="1685160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>49680</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1836360</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>123120</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="Image 3" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId18"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1490400" y="3759120"/>
+          <a:ext cx="1786680" cy="504000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>360</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1533240</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>161640</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="Image 16" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId19"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1441080" y="4140360"/>
+          <a:ext cx="1532880" cy="542160"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2010240</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>1696320</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="Image 28" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId20"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3961080" y="20284920"/>
+          <a:ext cx="2010240" cy="1696320"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2430360</xdr:colOff>
+      <xdr:row>72</xdr:row>
+      <xdr:rowOff>1696320</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="Image 27" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId21"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1440720" y="20284920"/>
+          <a:ext cx="2430360" cy="1696320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1705,16 +2893,16 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ968"/>
+  <dimension ref="A1:AMJ969"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A5" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A17" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A11" activeCellId="0" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.2578125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.32"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="36.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="13.31"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="2" width="38.01"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="3" style="2" width="21.33"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="2" width="41.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="3" width="21.33"/>
@@ -1816,7 +3004,7 @@
       <c r="Z3" s="17"/>
       <c r="AMJ3" s="19"/>
     </row>
-    <row r="4" s="23" customFormat="true" ht="37.3" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" s="8" customFormat="true" ht="49.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="20" t="s">
         <v>4</v>
       </c>
@@ -1835,489 +3023,527 @@
       <c r="F4" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="21"/>
-      <c r="H4" s="21"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
-      <c r="K4" s="22"/>
-      <c r="L4" s="22"/>
-      <c r="M4" s="22"/>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
-      <c r="S4" s="22"/>
-      <c r="T4" s="22"/>
-      <c r="U4" s="22"/>
-      <c r="V4" s="22"/>
-      <c r="W4" s="22"/>
-      <c r="X4" s="22"/>
-      <c r="Y4" s="22"/>
-      <c r="Z4" s="22"/>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="7"/>
+      <c r="J4" s="7"/>
+      <c r="K4" s="7"/>
+      <c r="L4" s="7"/>
+      <c r="M4" s="7"/>
+      <c r="N4" s="7"/>
+      <c r="O4" s="7"/>
+      <c r="P4" s="7"/>
+      <c r="Q4" s="7"/>
+      <c r="R4" s="7"/>
+      <c r="S4" s="7"/>
+      <c r="T4" s="7"/>
+      <c r="U4" s="7"/>
+      <c r="V4" s="7"/>
+      <c r="W4" s="7"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
     </row>
-    <row r="5" s="26" customFormat="true" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="24" t="s">
+    <row r="5" s="25" customFormat="true" ht="49.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A5" s="21"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="21"/>
+      <c r="D5" s="21"/>
+      <c r="E5" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="B5" s="25"/>
-      <c r="C5" s="26" t="s">
+      <c r="F5" s="21"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="24"/>
+      <c r="J5" s="24"/>
+      <c r="K5" s="24"/>
+      <c r="L5" s="24"/>
+      <c r="M5" s="24"/>
+      <c r="N5" s="24"/>
+      <c r="O5" s="24"/>
+      <c r="P5" s="24"/>
+      <c r="Q5" s="24"/>
+      <c r="R5" s="24"/>
+      <c r="S5" s="24"/>
+      <c r="T5" s="24"/>
+      <c r="U5" s="24"/>
+      <c r="V5" s="24"/>
+      <c r="W5" s="24"/>
+      <c r="X5" s="24"/>
+      <c r="Y5" s="24"/>
+      <c r="Z5" s="24"/>
+    </row>
+    <row r="6" s="28" customFormat="true" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A6" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="D5" s="26" t="s">
+      <c r="B6" s="27"/>
+      <c r="C6" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="E5" s="26" t="s">
+      <c r="D6" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="F5" s="27" t="s">
+      <c r="E6" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="G5" s="28"/>
-      <c r="H5" s="28"/>
-      <c r="I5" s="28"/>
-      <c r="AMI5" s="29"/>
-      <c r="AMJ5" s="28"/>
+      <c r="F6" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="31"/>
+      <c r="AMI6" s="32"/>
+      <c r="AMJ6" s="31"/>
     </row>
-    <row r="6" s="31" customFormat="true" ht="91" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="24" t="s">
-        <v>10</v>
-      </c>
-      <c r="B6" s="26"/>
-      <c r="C6" s="26" t="s">
+    <row r="7" s="35" customFormat="true" ht="91" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" s="28"/>
+      <c r="C7" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="26" t="s">
-        <v>16</v>
-      </c>
-      <c r="E6" s="26" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="30" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="28"/>
-      <c r="AMI6" s="32"/>
-      <c r="AMJ6" s="28"/>
+      <c r="G7" s="31"/>
+      <c r="H7" s="31"/>
+      <c r="I7" s="31"/>
+      <c r="AMI7" s="36"/>
+      <c r="AMJ7" s="31"/>
     </row>
-    <row r="7" s="36" customFormat="true" ht="191.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B7" s="33"/>
-      <c r="C7" s="33" t="s">
+    <row r="8" s="40" customFormat="true" ht="191.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="37"/>
+      <c r="C8" s="37" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="34" t="s">
+      <c r="D8" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="E7" s="33" t="s">
+      <c r="E8" s="38" t="s">
         <v>21</v>
       </c>
-      <c r="F7" s="35" t="s">
+      <c r="F8" s="39" t="s">
         <v>22</v>
       </c>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="28"/>
-      <c r="AMJ7" s="28"/>
+      <c r="G8" s="31"/>
+      <c r="H8" s="31"/>
+      <c r="I8" s="31"/>
+      <c r="AMJ8" s="31"/>
     </row>
-    <row r="8" s="33" customFormat="true" ht="113.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A8" s="37" t="s">
+    <row r="9" s="37" customFormat="true" ht="113.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="41" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="33" t="s">
+      <c r="C9" s="37" t="s">
         <v>24</v>
       </c>
-      <c r="D8" s="33" t="s">
+      <c r="D9" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="E8" s="33" t="s">
+      <c r="E9" s="38" t="s">
         <v>26</v>
       </c>
-      <c r="F8" s="38" t="s">
+      <c r="F9" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="28"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
-      <c r="O8" s="2"/>
-      <c r="P8" s="2"/>
-      <c r="Q8" s="2"/>
+      <c r="G9" s="31"/>
+      <c r="H9" s="31"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="2"/>
+      <c r="K9" s="2"/>
+      <c r="L9" s="2"/>
+      <c r="M9" s="2"/>
+      <c r="N9" s="2"/>
+      <c r="O9" s="2"/>
+      <c r="P9" s="2"/>
+      <c r="Q9" s="2"/>
     </row>
-    <row r="9" s="33" customFormat="true" ht="113.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="33" t="s">
+    <row r="10" s="37" customFormat="true" ht="113.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="D9" s="33" t="s">
+      <c r="D10" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="E9" s="33" t="s">
+      <c r="E10" s="38" t="s">
         <v>30</v>
       </c>
-      <c r="F9" s="38" t="s">
+      <c r="F10" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="28"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
     </row>
-    <row r="10" s="33" customFormat="true" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A10" s="39" t="s">
+    <row r="11" s="37" customFormat="true" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="B10" s="33" t="s">
+      <c r="B11" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="C10" s="33" t="s">
+      <c r="C11" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="E10" s="33" t="s">
+      <c r="E11" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="F10" s="39" t="s">
+      <c r="F11" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="40"/>
     </row>
-    <row r="11" s="33" customFormat="true" ht="70.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A11" s="40" t="s">
+    <row r="12" s="37" customFormat="true" ht="70.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="34" t="s">
+      <c r="C12" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="33" t="s">
+      <c r="D12" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="33" t="s">
+      <c r="E12" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="F11" s="38" t="s">
+      <c r="F12" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="28"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
     </row>
-    <row r="12" customFormat="false" ht="67.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="C12" s="33" t="s">
+    <row r="13" customFormat="false" ht="67.9" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="C13" s="37" t="s">
         <v>40</v>
       </c>
-      <c r="D12" s="33" t="s">
+      <c r="D13" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="E12" s="33" t="s">
+      <c r="E13" s="37" t="s">
         <v>42</v>
       </c>
-      <c r="F12" s="38" t="s">
+      <c r="F13" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="28"/>
+      <c r="G13" s="31"/>
+      <c r="H13" s="31"/>
+      <c r="I13" s="31"/>
     </row>
-    <row r="13" s="33" customFormat="true" ht="133.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A13" s="38" t="s">
+    <row r="14" s="37" customFormat="true" ht="133.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="B13" s="41"/>
-      <c r="C13" s="42" t="s">
+      <c r="B14" s="44"/>
+      <c r="C14" s="45" t="s">
         <v>44</v>
       </c>
-      <c r="E13" s="41" t="s">
+      <c r="E14" s="38" t="s">
         <v>45</v>
       </c>
-      <c r="F13" s="38" t="s">
+      <c r="F14" s="42" t="s">
         <v>36</v>
       </c>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="28"/>
+      <c r="G14" s="31"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="31"/>
     </row>
-    <row r="14" s="36" customFormat="true" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A14" s="37" t="s">
+    <row r="15" s="40" customFormat="true" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="B14" s="36" t="s">
+      <c r="B15" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="D14" s="33" t="s">
+      <c r="D15" s="37" t="s">
         <v>48</v>
       </c>
-      <c r="F14" s="35" t="s">
+      <c r="F15" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="28"/>
+      <c r="G15" s="31"/>
+      <c r="H15" s="31"/>
+      <c r="I15" s="31"/>
     </row>
-    <row r="15" s="36" customFormat="true" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A15" s="37" t="s">
+    <row r="16" s="40" customFormat="true" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="41" t="s">
         <v>46</v>
       </c>
-      <c r="B15" s="33" t="s">
+      <c r="B16" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="C15" s="33" t="s">
+      <c r="C16" s="37" t="s">
         <v>50</v>
       </c>
-      <c r="E15" s="33" t="s">
+      <c r="E16" s="38" t="s">
         <v>51</v>
       </c>
-      <c r="F15" s="38" t="s">
+      <c r="F16" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="28"/>
+      <c r="G16" s="31"/>
+      <c r="H16" s="31"/>
+      <c r="I16" s="31"/>
     </row>
-    <row r="16" s="36" customFormat="true" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="35"/>
-      <c r="D16" s="33"/>
-      <c r="F16" s="35"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
+    <row r="17" s="40" customFormat="true" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="39"/>
+      <c r="D17" s="37"/>
+      <c r="F17" s="39"/>
+      <c r="G17" s="31"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="31"/>
     </row>
-    <row r="17" s="33" customFormat="true" ht="113.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A17" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C17" s="33" t="s">
-        <v>54</v>
-      </c>
-      <c r="D17" s="33" t="s">
-        <v>55</v>
-      </c>
-      <c r="E17" s="33" t="s">
-        <v>56</v>
-      </c>
-      <c r="F17" s="38" t="s">
-        <v>57</v>
-      </c>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-    </row>
-    <row r="18" s="33" customFormat="true" ht="113.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="18" s="37" customFormat="true" ht="113.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A18" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C18" s="33" t="s">
-        <v>58</v>
-      </c>
-      <c r="D18" s="33" t="s">
-        <v>59</v>
-      </c>
-      <c r="E18" s="33" t="s">
-        <v>60</v>
-      </c>
-      <c r="F18" s="38" t="s">
-        <v>27</v>
-      </c>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="28"/>
+      <c r="C18" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="D18" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="E18" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="F18" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="G18" s="31"/>
+      <c r="H18" s="31"/>
+      <c r="I18" s="31"/>
     </row>
-    <row r="19" s="33" customFormat="true" ht="113.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="19" s="37" customFormat="true" ht="113.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A19" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C19" s="33" t="s">
+      <c r="C19" s="37" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" s="37" t="s">
+        <v>59</v>
+      </c>
+      <c r="E19" s="37" t="s">
+        <v>60</v>
+      </c>
+      <c r="F19" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" s="31"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="31"/>
+    </row>
+    <row r="20" s="37" customFormat="true" ht="113.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" s="37" t="s">
         <v>61</v>
       </c>
-      <c r="E19" s="33" t="s">
+      <c r="E20" s="37" t="s">
         <v>62</v>
       </c>
-      <c r="F19" s="38" t="s">
+      <c r="F20" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="G19" s="38"/>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" s="33" customFormat="true" ht="229.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A20" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C20" s="33" t="s">
-        <v>63</v>
-      </c>
-      <c r="D20" s="33" t="s">
-        <v>64</v>
-      </c>
-      <c r="E20" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="F20" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="G20" s="38"/>
+      <c r="G20" s="42"/>
       <c r="H20" s="1"/>
     </row>
-    <row r="21" s="28" customFormat="true" ht="113.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A21" s="37" t="s">
+    <row r="21" s="37" customFormat="true" ht="229.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C21" s="33" t="s">
+      <c r="C21" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="F21" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21" s="42"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" s="31" customFormat="true" ht="113.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="41" t="s">
+        <v>32</v>
+      </c>
+      <c r="C22" s="37" t="s">
         <v>66</v>
       </c>
-      <c r="E21" s="33" t="s">
+      <c r="E22" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="F21" s="35" t="s">
+      <c r="F22" s="39" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="22" s="36" customFormat="true" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="1" t="s">
+    <row r="23" s="40" customFormat="true" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="B22" s="33" t="s">
+      <c r="B23" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="C22" s="33" t="s">
+      <c r="C23" s="37" t="s">
         <v>70</v>
       </c>
-      <c r="D22" s="33"/>
-      <c r="E22" s="33" t="s">
+      <c r="D23" s="37"/>
+      <c r="E23" s="37" t="s">
         <v>71</v>
       </c>
-      <c r="F22" s="38" t="s">
+      <c r="F23" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
+      <c r="G23" s="31"/>
+      <c r="H23" s="31"/>
     </row>
-    <row r="23" s="36" customFormat="true" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A23" s="1" t="s">
+    <row r="24" s="40" customFormat="true" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B23" s="33" t="s">
+      <c r="B24" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="C23" s="33"/>
-      <c r="D23" s="33"/>
-      <c r="E23" s="33" t="s">
+      <c r="C24" s="37"/>
+      <c r="D24" s="37"/>
+      <c r="E24" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="F23" s="38" t="s">
+      <c r="F24" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="31"/>
     </row>
-    <row r="24" s="36" customFormat="true" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="1" t="s">
+    <row r="25" s="40" customFormat="true" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="B24" s="33" t="s">
+      <c r="B25" s="37" t="s">
         <v>77</v>
       </c>
-      <c r="C24" s="33"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="33" t="s">
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37" t="s">
         <v>78</v>
       </c>
-      <c r="F24" s="38" t="s">
+      <c r="F25" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="G24" s="37"/>
+      <c r="G25" s="41"/>
     </row>
-    <row r="25" s="28" customFormat="true" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="1" t="s">
+    <row r="26" s="31" customFormat="true" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="B25" s="33" t="s">
+      <c r="B26" s="37" t="s">
         <v>79</v>
       </c>
-      <c r="C25" s="33" t="s">
+      <c r="C26" s="37" t="s">
         <v>80</v>
       </c>
-      <c r="D25" s="33"/>
-      <c r="E25" s="33" t="s">
+      <c r="D26" s="37"/>
+      <c r="E26" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="F25" s="38" t="s">
+      <c r="F26" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="G25" s="37"/>
+      <c r="G26" s="41"/>
     </row>
-    <row r="26" s="28" customFormat="true" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="1" t="s">
+    <row r="27" s="31" customFormat="true" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="B26" s="33" t="s">
+      <c r="B27" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="C26" s="33"/>
-      <c r="D26" s="33"/>
-      <c r="E26" s="33" t="s">
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37" t="s">
         <v>81</v>
       </c>
-      <c r="F26" s="38" t="s">
+      <c r="F27" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="G26" s="37"/>
+      <c r="G27" s="41"/>
     </row>
-    <row r="27" s="28" customFormat="true" ht="113.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="1" t="s">
+    <row r="28" s="31" customFormat="true" ht="113.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="s">
         <v>84</v>
       </c>
-      <c r="B27" s="33" t="s">
+      <c r="B28" s="37" t="s">
         <v>85</v>
       </c>
-      <c r="C27" s="33" t="s">
+      <c r="C28" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="D27" s="33" t="s">
+      <c r="D28" s="37" t="s">
         <v>87</v>
       </c>
-      <c r="E27" s="33" t="s">
+      <c r="E28" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="F27" s="38" t="s">
+      <c r="F28" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="G27" s="37"/>
+      <c r="G28" s="41"/>
     </row>
-    <row r="28" s="28" customFormat="true" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="1" t="s">
+    <row r="29" s="31" customFormat="true" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="B28" s="33" t="s">
+      <c r="B29" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="C28" s="33" t="s">
+      <c r="C29" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="D28" s="33" t="s">
+      <c r="D29" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="E28" s="33" t="s">
+      <c r="E29" s="37" t="s">
         <v>90</v>
       </c>
-      <c r="F28" s="38" t="s">
+      <c r="F29" s="42" t="s">
         <v>72</v>
       </c>
-      <c r="G28" s="37"/>
+      <c r="G29" s="41"/>
     </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="32" s="28" customFormat="true" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A32" s="26"/>
+      <c r="B32" s="27"/>
+      <c r="F32" s="30"/>
+      <c r="G32" s="31"/>
+      <c r="H32" s="31"/>
+      <c r="I32" s="31"/>
+      <c r="AMI32" s="32"/>
+      <c r="AMJ32" s="31"/>
+    </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="34" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -3254,6 +4480,7 @@
     <row r="966" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="967" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="968" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="969" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -3271,58 +4498,298 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:Z1"/>
+  <dimension ref="A1:AMJ1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E5" activeCellId="0" sqref="E5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A72" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C74" activeCellId="0" sqref="C74"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.6640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="1" style="0" width="21.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.03"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="29.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="4" style="0" width="21.28"/>
   </cols>
   <sheetData>
-    <row r="1" s="45" customFormat="true" ht="41" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="43" t="s">
+    <row r="1" s="48" customFormat="true" ht="41" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A1" s="46" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="43" t="s">
+      <c r="B1" s="46" t="s">
         <v>5</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="C1" s="46"/>
+      <c r="D1" s="46" t="s">
         <v>6</v>
       </c>
-      <c r="D1" s="43" t="s">
+      <c r="E1" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="43" t="s">
+      <c r="F1" s="46" t="s">
         <v>8</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="G1" s="46" t="s">
         <v>9</v>
       </c>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="44"/>
-      <c r="S1" s="44"/>
-      <c r="T1" s="44"/>
-      <c r="U1" s="44"/>
-      <c r="V1" s="44"/>
-      <c r="W1" s="44"/>
-      <c r="X1" s="44"/>
-      <c r="Y1" s="44"/>
-      <c r="Z1" s="44"/>
+      <c r="H1" s="47"/>
+      <c r="I1" s="47"/>
+      <c r="J1" s="47"/>
+      <c r="K1" s="47"/>
+      <c r="L1" s="47"/>
+      <c r="M1" s="47"/>
+      <c r="N1" s="47"/>
+      <c r="O1" s="47"/>
+      <c r="P1" s="47"/>
+      <c r="Q1" s="47"/>
+      <c r="R1" s="47"/>
+      <c r="S1" s="47"/>
+      <c r="T1" s="47"/>
+      <c r="U1" s="47"/>
+      <c r="V1" s="47"/>
+      <c r="W1" s="47"/>
+      <c r="X1" s="47"/>
+      <c r="Y1" s="47"/>
+      <c r="Z1" s="47"/>
+      <c r="AA1" s="47"/>
     </row>
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="49" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="49" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B66" s="0" t="s">
+        <v>93</v>
+      </c>
+      <c r="C66" s="50" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="68" s="28" customFormat="true" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A68" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B68" s="27"/>
+      <c r="C68" s="27"/>
+      <c r="D68" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="E68" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="F68" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="G68" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H68" s="31"/>
+      <c r="I68" s="31"/>
+      <c r="J68" s="31"/>
+      <c r="AMJ68" s="32"/>
+    </row>
+    <row r="69" s="35" customFormat="true" ht="91" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A69" s="26" t="s">
+        <v>11</v>
+      </c>
+      <c r="B69" s="28"/>
+      <c r="C69" s="0"/>
+      <c r="D69" s="28" t="s">
+        <v>16</v>
+      </c>
+      <c r="E69" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="F69" s="33" t="s">
+        <v>18</v>
+      </c>
+      <c r="G69" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="H69" s="31"/>
+      <c r="I69" s="31"/>
+      <c r="AMI69" s="36"/>
+      <c r="AMJ69" s="31"/>
+    </row>
+    <row r="70" s="40" customFormat="true" ht="191.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A70" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B70" s="37"/>
+      <c r="C70" s="0"/>
+      <c r="D70" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="E70" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="F70" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="G70" s="39" t="s">
+        <v>22</v>
+      </c>
+      <c r="H70" s="31"/>
+      <c r="I70" s="31"/>
+      <c r="AMJ70" s="31"/>
+    </row>
+    <row r="71" s="37" customFormat="true" ht="113.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A71" s="41" t="s">
+        <v>23</v>
+      </c>
+      <c r="C71" s="0"/>
+      <c r="D71" s="37" t="s">
+        <v>24</v>
+      </c>
+      <c r="E71" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="F71" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="G71" s="42" t="s">
+        <v>27</v>
+      </c>
+      <c r="H71" s="31"/>
+      <c r="I71" s="31"/>
+      <c r="J71" s="2"/>
+      <c r="K71" s="2"/>
+      <c r="L71" s="2"/>
+      <c r="M71" s="2"/>
+      <c r="N71" s="2"/>
+      <c r="O71" s="2"/>
+      <c r="P71" s="2"/>
+      <c r="Q71" s="2"/>
+    </row>
+    <row r="72" s="37" customFormat="true" ht="113.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A72" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C72" s="0"/>
+      <c r="D72" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="E72" s="37" t="s">
+        <v>29</v>
+      </c>
+      <c r="F72" s="38" t="s">
+        <v>30</v>
+      </c>
+      <c r="G72" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="H72" s="31"/>
+      <c r="I72" s="31"/>
+    </row>
+    <row r="73" s="37" customFormat="true" ht="133.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A73" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="B73" s="38"/>
+      <c r="C73" s="0"/>
+      <c r="D73" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="G73" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="H73" s="31"/>
+      <c r="I73" s="31"/>
+    </row>
+    <row r="74" s="37" customFormat="true" ht="113.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A74" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C74" s="0"/>
+      <c r="D74" s="37" t="s">
+        <v>54</v>
+      </c>
+      <c r="E74" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="F74" s="38" t="s">
+        <v>56</v>
+      </c>
+      <c r="G74" s="42" t="s">
+        <v>57</v>
+      </c>
+      <c r="H74" s="31"/>
+      <c r="I74" s="31"/>
+    </row>
+    <row r="75" s="37" customFormat="true" ht="229.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A75" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="C75" s="0"/>
+      <c r="D75" s="37" t="s">
+        <v>63</v>
+      </c>
+      <c r="E75" s="37" t="s">
+        <v>64</v>
+      </c>
+      <c r="F75" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="G75" s="42" t="s">
+        <v>22</v>
+      </c>
+      <c r="H75" s="1"/>
+    </row>
+    <row r="76" s="40" customFormat="true" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A76" s="41" t="s">
+        <v>46</v>
+      </c>
+      <c r="B76" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="C76" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="E76" s="38" t="s">
+        <v>51</v>
+      </c>
+      <c r="F76" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="G76" s="31"/>
+      <c r="H76" s="31"/>
+      <c r="I76" s="31"/>
+    </row>
+    <row r="77" s="37" customFormat="true" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A77" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="B77" s="37" t="s">
+        <v>33</v>
+      </c>
+      <c r="C77" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="E77" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="F77" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="G77" s="40"/>
+      <c r="H77" s="40"/>
+      <c r="I77" s="40"/>
+    </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A5:H35"/>
+    <mergeCell ref="A39:H65"/>
+  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
@@ -3330,5 +4797,6 @@
     <oddHeader>&amp;C&amp;"Times New Roman,Normal"&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normal"Page &amp;P</oddFooter>
   </headerFooter>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Audit-SEO.xlsx
+++ b/Audit-SEO.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="108">
   <si>
     <t xml:space="preserve">page ACCUEIL</t>
   </si>
@@ -926,6 +926,360 @@
   </si>
   <si>
     <t xml:space="preserve">CODE APRES OPTIMISATION</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">1-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">██</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> Renseigner la langue « fr »
+Sur les 2 pages accueil et Page 2</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Bahnschrift"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">2-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Bahnschrift"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">██</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Bahnschrift"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">  </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Modifier «href=index.html »
+Par adresses tweeter,
+ facebook,Dribbble, instagram</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">accueil et page2</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Bahnschrift"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">- n°1 &amp; 2 : Very low contrast between text and background colors. </t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Bahnschrift"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">div.keywords </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Bahnschrift"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">ce sont des mots clés déguisées en texte 1pt qui ressemblent à des traits. Pratique</t>
+    </r>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Bahnschrift"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve"> blackhat
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Bahnschrift"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">
+- n°3 à 7 : 2 x Bouton contact, 5 x Very low contrast entre le texte blanc et le fond orange sur les 2 pages.
+- n°8 à 29 : tous les liens du footer : texte trop fin et petit et la couleur pas assez foncé le ratio est 3,2:1</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Bahnschrift"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">3-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Bahnschrift"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">██</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Bahnschrift"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">- n°1 &amp; 2 : Supprimer les balises &lt;keyword&gt; dans le html au niveau de la navbar-header, dans le footer(4 logos sociaux) et dans la balise meta name="keywords"(non pratiqué en 2021) 
+- n°3 à 7 : mettre texte noir
+- n°8 à 29 : supprimer tous les liens car non pertinents avec le domaine d’activité du site </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Bahnschrift"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">5-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Bahnschrift"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">██</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Bahnschrift"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">mettre des &lt;h2&gt; à la place des images dans la section &lt;!-- bloc-2-services --&gt;</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Outils
+Développement
+Chrome</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mesures faites avec chrome dev - NETWORK après vidage du cache</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Bahnschrift"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">7-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Bahnschrift"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">██</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Bahnschrift"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">réenregistrer les images avec photoshop sous enregistrer pour le web et periph en jpg</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">2 x Le texte est caché en version mobile
+cause ;  c’est 1 image trop grande</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Bahnschrift"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">9-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Bahnschrift"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">██</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Bahnschrift"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">Ecrire le texte entre 2 &lt;p&gt; ou &lt;h2&gt; et effacer le lien image dans html</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">Taille de la police des paragraphes trop petite
+font-size: 11px </t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b val="true"/>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Bahnschrift"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">10-</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Bahnschrift"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">██</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Bahnschrift"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">font-size: 14px </t>
+    </r>
   </si>
 </sst>
 </file>
@@ -935,7 +1289,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
@@ -1076,36 +1430,45 @@
     </font>
     <font>
       <b val="true"/>
-      <sz val="12"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Cambria"/>
-      <family val="0"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="0"/>
+      <sz val="10"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
       <name val="Arial"/>
-      <family val="0"/>
+      <family val="2"/>
       <charset val="1"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="10"/>
+      <color rgb="FFFF0000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <u val="single"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-      <family val="0"/>
+      <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1115,7 +1478,13 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF7030A0"/>
-        <bgColor rgb="FF993366"/>
+        <bgColor rgb="FF55308D"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF55308D"/>
+        <bgColor rgb="FF7030A0"/>
       </patternFill>
     </fill>
   </fills>
@@ -1195,7 +1564,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="68">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1380,24 +1749,92 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="true"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="5" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="6" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -1465,7 +1902,7 @@
       <rgbColor rgb="FF333300"/>
       <rgbColor rgb="FF993300"/>
       <rgbColor rgb="FF993366"/>
-      <rgbColor rgb="FF333399"/>
+      <rgbColor rgb="FF55308D"/>
       <rgbColor rgb="FF333333"/>
     </indexedColors>
   </colors>
@@ -2111,15 +2548,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>491760</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>67320</xdr:rowOff>
+      <xdr:colOff>600120</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>57600</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1118520</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>143640</xdr:rowOff>
+      <xdr:colOff>685080</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>5658480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2132,7 +2569,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="491760" y="1159200"/>
+          <a:off x="600120" y="382680"/>
           <a:ext cx="10707120" cy="5600880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2148,15 +2585,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>532080</xdr:colOff>
-      <xdr:row>38</xdr:row>
-      <xdr:rowOff>20520</xdr:rowOff>
+      <xdr:colOff>374760</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>20880</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1235160</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>20880</xdr:rowOff>
+      <xdr:colOff>536040</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>4783680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2169,7 +2606,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="532080" y="7589520"/>
+          <a:off x="374760" y="6442560"/>
           <a:ext cx="10783440" cy="4762800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2185,15 +2622,15 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>97200</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>143280</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2305080</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>114120</xdr:rowOff>
+      <xdr:colOff>2520720</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>511200</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -2206,81 +2643,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1537920" y="1425960"/>
-          <a:ext cx="2207880" cy="542160"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>97200</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>143280</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2307240</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>114120</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="20" name="Image 7" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId4"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1537920" y="1425960"/>
-          <a:ext cx="2210040" cy="542160"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2520720</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>510840</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="21" name="Image 7" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId5"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1440720" y="13093560"/>
+          <a:off x="1166400" y="12164760"/>
           <a:ext cx="2520720" cy="510840"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2296,28 +2659,28 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>360</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1238040</xdr:colOff>
-      <xdr:row>67</xdr:row>
-      <xdr:rowOff>514080</xdr:rowOff>
+      <xdr:colOff>1238400</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>514440</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="22" name="Image 20" descr=""/>
+        <xdr:cNvPr id="20" name="Image 20" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId6"/>
+        <a:blip r:embed="rId4"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3961080" y="13093560"/>
+          <a:off x="3940920" y="12164760"/>
           <a:ext cx="1238040" cy="514080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2334,27 +2697,27 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2520720</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>534240</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="23" name="Image 8_0" descr=""/>
+        <xdr:cNvPr id="21" name="Image 8_0" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId7"/>
+        <a:blip r:embed="rId5"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1440720" y="13813920"/>
+          <a:off x="1166400" y="12885120"/>
           <a:ext cx="2520720" cy="533880"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2370,28 +2733,28 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:colOff>360</xdr:colOff>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1790280</xdr:colOff>
-      <xdr:row>68</xdr:row>
+      <xdr:colOff>1790640</xdr:colOff>
+      <xdr:row>8</xdr:row>
       <xdr:rowOff>485640</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="24" name="Image 21" descr=""/>
+        <xdr:cNvPr id="22" name="Image 21" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId8"/>
+        <a:blip r:embed="rId6"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3961080" y="13813920"/>
+          <a:off x="3940920" y="12885120"/>
           <a:ext cx="1790280" cy="485280"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2407,29 +2770,29 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>11160</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>39240</xdr:rowOff>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2477880</xdr:colOff>
-      <xdr:row>69</xdr:row>
-      <xdr:rowOff>2038680</xdr:rowOff>
+      <xdr:colOff>2774520</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>1828080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="25" name="Image 12" descr=""/>
+        <xdr:cNvPr id="23" name="Image 12" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId9"/>
+        <a:blip r:embed="rId7"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1451880" y="15008400"/>
-          <a:ext cx="2466720" cy="1999440"/>
+          <a:off x="1166400" y="14040360"/>
+          <a:ext cx="2774520" cy="1828080"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2444,28 +2807,28 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:colOff>360</xdr:colOff>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>1380600</xdr:colOff>
-      <xdr:row>69</xdr:row>
+      <xdr:colOff>1380960</xdr:colOff>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>609480</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="26" name="Image 22" descr=""/>
+        <xdr:cNvPr id="24" name="Image 22" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId10"/>
+        <a:blip r:embed="rId8"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3961080" y="14969520"/>
+          <a:off x="3940920" y="14040720"/>
           <a:ext cx="1380600" cy="609120"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2481,29 +2844,66 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>720</xdr:colOff>
-      <xdr:row>8</xdr:row>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>2238840</xdr:colOff>
+      <xdr:colOff>2599920</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>85320</xdr:rowOff>
+      <xdr:rowOff>466560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="27" name="Image 5" descr=""/>
+        <xdr:cNvPr id="25" name="Image 23" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId11"/>
+        <a:blip r:embed="rId9"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1441440" y="1854360"/>
-          <a:ext cx="2238120" cy="465840"/>
+          <a:off x="1166400" y="16059240"/>
+          <a:ext cx="2599920" cy="466200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>360</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2076480</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>314280</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="26" name="Image 24" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId10"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3940920" y="16059240"/>
+          <a:ext cx="2076120" cy="313920"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2519,138 +2919,27 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>79560</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>466200</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="28" name="Image 23" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId12"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1440720" y="17404560"/>
-          <a:ext cx="2599920" cy="466200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>2076120</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>313920</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="29" name="Image 24" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId13"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="3961080" y="17404560"/>
-          <a:ext cx="2076120" cy="313920"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>720</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>1080</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1951920</xdr:colOff>
       <xdr:row>11</xdr:row>
-      <xdr:rowOff>85680</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="30" name="Image 4" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId14"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1441440" y="2045520"/>
-          <a:ext cx="1951200" cy="465840"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>71</xdr:row>
       <xdr:rowOff>360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2266560</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>466560</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="31" name="Image 25" descr=""/>
+        <xdr:cNvPr id="27" name="Image 25" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId15"/>
+        <a:blip r:embed="rId11"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1440720" y="18844920"/>
+          <a:off x="1166400" y="17499600"/>
           <a:ext cx="2266560" cy="466200"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2666,140 +2955,29 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>71</xdr:row>
+      <xdr:colOff>360</xdr:colOff>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2409120</xdr:colOff>
-      <xdr:row>71</xdr:row>
-      <xdr:rowOff>448560</xdr:rowOff>
+      <xdr:colOff>2498400</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>371160</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="32" name="Image 26" descr=""/>
+        <xdr:cNvPr id="28" name="Image 26" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId16"/>
+        <a:blip r:embed="rId12"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3961080" y="18844920"/>
-          <a:ext cx="2409120" cy="448200"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>360</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>2426760</xdr:colOff>
-      <xdr:row>21</xdr:row>
-      <xdr:rowOff>161640</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="33" name="Image 14" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId17"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1441080" y="2806920"/>
-          <a:ext cx="2426400" cy="1685160"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>49680</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1836360</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>123120</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="34" name="Image 3" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId18"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1490400" y="3759120"/>
-          <a:ext cx="1786680" cy="504000"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln w="0">
-          <a:noFill/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>360</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>360</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>1533240</xdr:colOff>
-      <xdr:row>22</xdr:row>
-      <xdr:rowOff>161640</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="35" name="Image 16" descr=""/>
-        <xdr:cNvPicPr/>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId19"/>
-        <a:stretch/>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1441080" y="4140360"/>
-          <a:ext cx="1532880" cy="542160"/>
+          <a:off x="3940920" y="17499600"/>
+          <a:ext cx="2498040" cy="370800"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -2814,28 +2992,28 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>360</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2010240</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>1696320</xdr:rowOff>
+      <xdr:colOff>2010600</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1696680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="36" name="Image 28" descr=""/>
+        <xdr:cNvPr id="29" name="Image 28" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
-        <a:blip r:embed="rId20"/>
+        <a:blip r:embed="rId13"/>
         <a:stretch/>
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="3961080" y="20284920"/>
+          <a:off x="3940920" y="18939600"/>
           <a:ext cx="2010240" cy="1696320"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -2852,18 +3030,277 @@
     <xdr:from>
       <xdr:col>1</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>360</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>1</xdr:col>
       <xdr:colOff>2430360</xdr:colOff>
-      <xdr:row>72</xdr:row>
-      <xdr:rowOff>1696320</xdr:rowOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>1696680</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="37" name="Image 27" descr=""/>
+        <xdr:cNvPr id="30" name="Image 27" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId14"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1166400" y="18939600"/>
+          <a:ext cx="2430360" cy="1696320"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>1780920</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>542880</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="31" name="Image 29" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId15"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1166400" y="22075920"/>
+          <a:ext cx="1780920" cy="542520"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>360</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1800360</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>523800</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="32" name="Image 30" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId16"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3940920" y="22075920"/>
+          <a:ext cx="1800000" cy="523440"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>360</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2443320</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>720</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="33" name="Image 32" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId17"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3940920" y="25288560"/>
+          <a:ext cx="2442960" cy="1194120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2520720</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>594360</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="34" name="Image 31" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId18"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1166400" y="25288560"/>
+          <a:ext cx="2520720" cy="594000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>360</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>14400</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>990720</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="35" name="Image 34" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId19"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3940920" y="26482320"/>
+          <a:ext cx="2533320" cy="990360"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>360</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>2523600</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>762120</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="36" name="Image 33" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId20"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1166400" y="26482320"/>
+          <a:ext cx="2523600" cy="761760"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1156320</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>446760</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>982800</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>694080</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="37" name="Image 35" descr=""/>
         <xdr:cNvPicPr/>
       </xdr:nvPicPr>
       <xdr:blipFill>
@@ -2872,8 +3309,45 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1440720" y="20284920"/>
-          <a:ext cx="2430360" cy="1696320"/>
+          <a:off x="1156320" y="21082320"/>
+          <a:ext cx="6286320" cy="247320"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="0">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19800</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>1056960</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1117440</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>1332720</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="38" name="Image 36" descr=""/>
+        <xdr:cNvPicPr/>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId22"/>
+        <a:stretch/>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1186200" y="21692520"/>
+          <a:ext cx="6391080" cy="275760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4498,298 +4972,273 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ1048576"/>
+  <dimension ref="A2:AMJ17"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A72" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C74" activeCellId="0" sqref="C74"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A11" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E14" activeCellId="0" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.6640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="9.6640625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="17.03"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="29.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="29.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="4" style="0" width="21.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="46" width="13.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="46" width="32.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="46" width="29.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="46" width="27.92"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="46" width="21.28"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="46" width="33.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="46" width="21.28"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1024" min="8" style="46" width="9.65"/>
   </cols>
   <sheetData>
-    <row r="1" s="48" customFormat="true" ht="41" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A1" s="46" t="s">
+    <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="47" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="454.45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="47" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="424.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="7" s="50" customFormat="true" ht="27.6" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A7" s="48" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="46" t="s">
-        <v>5</v>
-      </c>
-      <c r="C1" s="46"/>
-      <c r="D1" s="46" t="s">
+      <c r="B7" s="48" t="s">
+        <v>93</v>
+      </c>
+      <c r="C7" s="48" t="s">
+        <v>94</v>
+      </c>
+      <c r="D7" s="49" t="s">
         <v>6</v>
       </c>
-      <c r="E1" s="46" t="s">
+      <c r="E7" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="F1" s="46" t="s">
+      <c r="F7" s="49" t="s">
         <v>8</v>
       </c>
-      <c r="G1" s="46" t="s">
+      <c r="G7" s="49" t="s">
         <v>9</v>
       </c>
-      <c r="H1" s="47"/>
-      <c r="I1" s="47"/>
-      <c r="J1" s="47"/>
-      <c r="K1" s="47"/>
-      <c r="L1" s="47"/>
-      <c r="M1" s="47"/>
-      <c r="N1" s="47"/>
-      <c r="O1" s="47"/>
-      <c r="P1" s="47"/>
-      <c r="Q1" s="47"/>
-      <c r="R1" s="47"/>
-      <c r="S1" s="47"/>
-      <c r="T1" s="47"/>
-      <c r="U1" s="47"/>
-      <c r="V1" s="47"/>
-      <c r="W1" s="47"/>
-      <c r="X1" s="47"/>
-      <c r="Y1" s="47"/>
-      <c r="Z1" s="47"/>
-      <c r="AA1" s="47"/>
     </row>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="49" t="s">
-        <v>91</v>
-      </c>
+    <row r="8" s="53" customFormat="true" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A8" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" s="52"/>
+      <c r="C8" s="52"/>
+      <c r="D8" s="53" t="s">
+        <v>12</v>
+      </c>
+      <c r="E8" s="53" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="54" t="s">
+        <v>95</v>
+      </c>
+      <c r="G8" s="30" t="s">
+        <v>15</v>
+      </c>
+      <c r="H8" s="46"/>
+      <c r="I8" s="46"/>
+      <c r="J8" s="46"/>
+      <c r="AMJ8" s="55"/>
     </row>
-    <row r="37" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="49" t="s">
-        <v>92</v>
-      </c>
+    <row r="9" s="57" customFormat="true" ht="91" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="51" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="53"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="53" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>17</v>
+      </c>
+      <c r="F9" s="33" t="s">
+        <v>96</v>
+      </c>
+      <c r="G9" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="AMI9" s="58"/>
+      <c r="AMJ9" s="46"/>
     </row>
-    <row r="66" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B66" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="C66" s="50" t="s">
-        <v>94</v>
-      </c>
+    <row r="10" s="63" customFormat="true" ht="158.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A10" s="59" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="60"/>
+      <c r="C10" s="61" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" s="37" t="s">
+        <v>98</v>
+      </c>
+      <c r="E10" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="F10" s="38" t="s">
+        <v>99</v>
+      </c>
+      <c r="G10" s="62" t="s">
+        <v>22</v>
+      </c>
+      <c r="H10" s="46"/>
+      <c r="I10" s="46"/>
+      <c r="AMJ10" s="46"/>
     </row>
-    <row r="68" s="28" customFormat="true" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A68" s="26" t="s">
+    <row r="11" s="37" customFormat="true" ht="113.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A11" s="64" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="46"/>
+      <c r="D11" s="60" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="37" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="38" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="65" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="66"/>
+      <c r="K11" s="66"/>
+      <c r="L11" s="66"/>
+      <c r="M11" s="66"/>
+      <c r="N11" s="66"/>
+      <c r="O11" s="66"/>
+      <c r="P11" s="66"/>
+      <c r="Q11" s="66"/>
+    </row>
+    <row r="12" s="37" customFormat="true" ht="113.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A12" s="59" t="s">
         <v>11</v>
       </c>
-      <c r="B68" s="27"/>
-      <c r="C68" s="27"/>
-      <c r="D68" s="28" t="s">
-        <v>12</v>
-      </c>
-      <c r="E68" s="28" t="s">
-        <v>13</v>
-      </c>
-      <c r="F68" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="G68" s="30" t="s">
-        <v>15</v>
-      </c>
-      <c r="H68" s="31"/>
-      <c r="I68" s="31"/>
-      <c r="J68" s="31"/>
-      <c r="AMJ68" s="32"/>
+      <c r="C12" s="46"/>
+      <c r="D12" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" s="60" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="38" t="s">
+        <v>100</v>
+      </c>
+      <c r="G12" s="65" t="s">
+        <v>31</v>
+      </c>
+      <c r="H12" s="46"/>
+      <c r="I12" s="46"/>
     </row>
-    <row r="69" s="35" customFormat="true" ht="91" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A69" s="26" t="s">
-        <v>11</v>
-      </c>
-      <c r="B69" s="28"/>
-      <c r="C69" s="0"/>
-      <c r="D69" s="28" t="s">
-        <v>16</v>
-      </c>
-      <c r="E69" s="28" t="s">
-        <v>17</v>
-      </c>
-      <c r="F69" s="33" t="s">
-        <v>18</v>
-      </c>
-      <c r="G69" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="H69" s="31"/>
-      <c r="I69" s="31"/>
-      <c r="AMI69" s="36"/>
-      <c r="AMJ69" s="31"/>
+    <row r="13" s="37" customFormat="true" ht="133.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A13" s="65" t="s">
+        <v>101</v>
+      </c>
+      <c r="B13" s="67"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" s="38" t="s">
+        <v>45</v>
+      </c>
+      <c r="G13" s="65" t="s">
+        <v>36</v>
+      </c>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
     </row>
-    <row r="70" s="40" customFormat="true" ht="191.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A70" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B70" s="37"/>
-      <c r="C70" s="0"/>
-      <c r="D70" s="37" t="s">
-        <v>19</v>
-      </c>
-      <c r="E70" s="37" t="s">
-        <v>20</v>
-      </c>
-      <c r="F70" s="38" t="s">
-        <v>21</v>
-      </c>
-      <c r="G70" s="39" t="s">
+    <row r="14" s="37" customFormat="true" ht="113.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A14" s="59" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="60" t="s">
+        <v>102</v>
+      </c>
+      <c r="C14" s="46"/>
+      <c r="D14" s="60" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="60" t="s">
+        <v>55</v>
+      </c>
+      <c r="F14" s="38" t="s">
+        <v>103</v>
+      </c>
+      <c r="G14" s="65" t="s">
+        <v>57</v>
+      </c>
+      <c r="H14" s="46"/>
+      <c r="I14" s="46"/>
+    </row>
+    <row r="15" s="37" customFormat="true" ht="252.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A15" s="59" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" s="46"/>
+      <c r="D15" s="60" t="s">
+        <v>63</v>
+      </c>
+      <c r="E15" s="60" t="s">
+        <v>64</v>
+      </c>
+      <c r="F15" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="G15" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="H70" s="31"/>
-      <c r="I70" s="31"/>
-      <c r="AMJ70" s="31"/>
+      <c r="H15" s="59"/>
     </row>
-    <row r="71" s="37" customFormat="true" ht="113.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A71" s="41" t="s">
-        <v>23</v>
-      </c>
-      <c r="C71" s="0"/>
-      <c r="D71" s="37" t="s">
-        <v>24</v>
-      </c>
-      <c r="E71" s="37" t="s">
-        <v>25</v>
-      </c>
-      <c r="F71" s="38" t="s">
-        <v>26</v>
-      </c>
-      <c r="G71" s="42" t="s">
-        <v>27</v>
-      </c>
-      <c r="H71" s="31"/>
-      <c r="I71" s="31"/>
-      <c r="J71" s="2"/>
-      <c r="K71" s="2"/>
-      <c r="L71" s="2"/>
-      <c r="M71" s="2"/>
-      <c r="N71" s="2"/>
-      <c r="O71" s="2"/>
-      <c r="P71" s="2"/>
-      <c r="Q71" s="2"/>
+    <row r="16" s="63" customFormat="true" ht="94" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="64" t="s">
+        <v>46</v>
+      </c>
+      <c r="B16" s="46"/>
+      <c r="C16" s="37"/>
+      <c r="D16" s="60" t="s">
+        <v>104</v>
+      </c>
+      <c r="F16" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="G16" s="42" t="s">
+        <v>52</v>
+      </c>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46"/>
     </row>
-    <row r="72" s="37" customFormat="true" ht="113.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A72" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C72" s="0"/>
-      <c r="D72" s="37" t="s">
-        <v>28</v>
-      </c>
-      <c r="E72" s="37" t="s">
-        <v>29</v>
-      </c>
-      <c r="F72" s="38" t="s">
-        <v>30</v>
-      </c>
-      <c r="G72" s="42" t="s">
-        <v>31</v>
-      </c>
-      <c r="H72" s="31"/>
-      <c r="I72" s="31"/>
+    <row r="17" s="37" customFormat="true" ht="83.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A17" s="65" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="46"/>
+      <c r="D17" s="60" t="s">
+        <v>106</v>
+      </c>
+      <c r="F17" s="38" t="s">
+        <v>107</v>
+      </c>
+      <c r="G17" s="65" t="s">
+        <v>36</v>
+      </c>
+      <c r="H17" s="63"/>
+      <c r="I17" s="63"/>
     </row>
-    <row r="73" s="37" customFormat="true" ht="133.55" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A73" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="B73" s="38"/>
-      <c r="C73" s="0"/>
-      <c r="D73" s="45" t="s">
-        <v>44</v>
-      </c>
-      <c r="F73" s="38" t="s">
-        <v>45</v>
-      </c>
-      <c r="G73" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="H73" s="31"/>
-      <c r="I73" s="31"/>
-    </row>
-    <row r="74" s="37" customFormat="true" ht="113.4" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A74" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="C74" s="0"/>
-      <c r="D74" s="37" t="s">
-        <v>54</v>
-      </c>
-      <c r="E74" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="F74" s="38" t="s">
-        <v>56</v>
-      </c>
-      <c r="G74" s="42" t="s">
-        <v>57</v>
-      </c>
-      <c r="H74" s="31"/>
-      <c r="I74" s="31"/>
-    </row>
-    <row r="75" s="37" customFormat="true" ht="229.85" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A75" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C75" s="0"/>
-      <c r="D75" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="E75" s="37" t="s">
-        <v>64</v>
-      </c>
-      <c r="F75" s="38" t="s">
-        <v>65</v>
-      </c>
-      <c r="G75" s="42" t="s">
-        <v>22</v>
-      </c>
-      <c r="H75" s="1"/>
-    </row>
-    <row r="76" s="40" customFormat="true" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A76" s="41" t="s">
-        <v>46</v>
-      </c>
-      <c r="B76" s="37" t="s">
-        <v>49</v>
-      </c>
-      <c r="C76" s="37" t="s">
-        <v>50</v>
-      </c>
-      <c r="E76" s="38" t="s">
-        <v>51</v>
-      </c>
-      <c r="F76" s="42" t="s">
-        <v>52</v>
-      </c>
-      <c r="G76" s="31"/>
-      <c r="H76" s="31"/>
-      <c r="I76" s="31"/>
-    </row>
-    <row r="77" s="37" customFormat="true" ht="56.7" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A77" s="42" t="s">
-        <v>32</v>
-      </c>
-      <c r="B77" s="37" t="s">
-        <v>33</v>
-      </c>
-      <c r="C77" s="37" t="s">
-        <v>34</v>
-      </c>
-      <c r="E77" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="F77" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="G77" s="40"/>
-      <c r="H77" s="40"/>
-      <c r="I77" s="40"/>
-    </row>
-    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A5:H35"/>
-    <mergeCell ref="A39:H65"/>
-  </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
